--- a/Config/Excels/test/multi_rows_record.xlsx
+++ b/Config/Excels/test/multi_rows_record.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8280"/>
+    <workbookView windowHeight="17580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,6 +71,15 @@
     <t>##var</t>
   </si>
   <si>
+    <t>$key</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
     <t>*items</t>
   </si>
   <si>
@@ -78,15 +87,6 @@
   </si>
   <si>
     <t>名字</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>key</t>
   </si>
   <si>
     <t>注释行</t>
@@ -106,19 +106,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +149,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -164,39 +180,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,6 +212,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,56 +258,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,13 +299,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +341,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,43 +407,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,91 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,30 +472,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -539,13 +508,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,17 +553,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,148 +577,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -733,76 +726,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="30" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="24" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="23" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="22" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="29" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="23" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1076,7 +1069,7 @@
   <dimension ref="A1:AD16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1"/>
+      <selection activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1153,15 +1146,23 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
       <c r="R2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
@@ -1214,59 +1215,47 @@
       <c r="AC3" s="5"/>
       <c r="AD3" s="5"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" ht="48.75" customHeight="1" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
